--- a/Deliverable Submissions/Team Google Drive Backup/Team Drive/THE PROJECT/Sprint Backlog.xlsx
+++ b/Deliverable Submissions/Team Google Drive Backup/Team Drive/THE PROJECT/Sprint Backlog.xlsx
@@ -5,12 +5,13 @@
   <sheets>
     <sheet state="visible" name="Deliverable 1 Sprint" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Deliverable 2 Sprint" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Deliverable 3 Sprint" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="Qeps7P6GKKPXfKsrsWK/z+UkjjVmmZfUAkT87v2ZsEI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="gcw0RRcX3ys9ITpi3DhN3wXwjgocc7bAOZOTwouDvTo="/>
     </ext>
   </extLst>
 </workbook>
@@ -125,7 +126,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgnzDS2ZE1vKZOVwYZT7wDd21OYtg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhh0FsouYaRcbQ4Ovw/PYTCI6o/Fw=="/>
     </ext>
   </extLst>
 </comments>
@@ -148,14 +149,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miRndWsYCIzpow4lI5JUg1tZahTGg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgzUg0pOh46P3vX6+wHNGkLbD7L9Q=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="184">
   <si>
     <t>Deliverable 1</t>
   </si>
@@ -565,6 +566,153 @@
   <si>
     <t xml:space="preserve">Design a mechanism for users to give feedback on the feedback system itself, helping in continuous improvement.
 </t>
+  </si>
+  <si>
+    <t>Deliverable 3</t>
+  </si>
+  <si>
+    <t>Story Task Document</t>
+  </si>
+  <si>
+    <t>Names of Contributors</t>
+  </si>
+  <si>
+    <t>Contribution Percentage</t>
+  </si>
+  <si>
+    <t>Reviewing Past Feedback</t>
+  </si>
+  <si>
+    <t>As a project manager, I want to ensure that all feedback from Deliverable 2 is reviewed and tasks are created for any unaddressed comments, so that we can improve our project and meet the expectations set by our grading rubric.</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>The sprint goal is to refine our project based on past feedback, focusing on critical improvements that align with the grading rubric and ensure all team members are clear on enhancements.</t>
+  </si>
+  <si>
+    <t>Non-Functional (Technical)</t>
+  </si>
+  <si>
+    <t>In-progress</t>
+  </si>
+  <si>
+    <t>Entire Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Backlog Management	</t>
+  </si>
+  <si>
+    <t>A a team member, I want to update our product backlog to include all columns and details from the project's documents and ensure it reflects the latest sprint numbers and story points, to avoid losing points due to missing or outdated information.</t>
+  </si>
+  <si>
+    <t>This sprint will concentrate on perfecting our product backlog, making sure it's fully updated and reflects all recent changes to maintain transparency and readiness for upcoming sprints.</t>
+  </si>
+  <si>
+    <t>Andrew Bement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint Backlog Consistency	</t>
+  </si>
+  <si>
+    <t>As a scrum master, I want to make sure that the Sprint Backlog 3 accurately reflects the product backlog and includes both technical and non-technical tasks such as documentation and UI mockups, to ensure a comprehensive approach to our sprint activities.</t>
+  </si>
+  <si>
+    <t>The sprint goal is to ensure the Sprint Backlog is a true mirror of the Product Backlog with added details for the upcoming sprint, incorporating all planned work including technical tasks and documentation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documenting Contribution	</t>
+  </si>
+  <si>
+    <t>As a developer, I want to consistently commit to Github to show my contributions to the project, ensuring that all team members are recognized for their work and avoid a grade of zero.</t>
+  </si>
+  <si>
+    <t>The goal for this sprint is to maintain an accurate and timely record of contributions, promoting team accountability and visibility through consistent updates to our version control system.</t>
+  </si>
+  <si>
+    <t>Kanban Board Updates</t>
+  </si>
+  <si>
+    <t>As a project coordinator, I want to maintain an updated Kanban board with 20-40 meaningful tasks that show our progress and are properly assigned, ensuring clarity on project status and avoiding point deductions for under-assignment.</t>
+  </si>
+  <si>
+    <t>The sprint goal is to keep the Kanban board meticulously updated to reflect current project status and task ownership, ensuring that it provides a real-time snapshot of our collective progress.</t>
+  </si>
+  <si>
+    <t>Sprint Review Preparation</t>
+  </si>
+  <si>
+    <t>As a team, we want to follow the sprint review template and use it during our meetings, documenting our discussion to ensure that all aspects of the template are covered and that the most recent review is always at the top of our document.</t>
+  </si>
+  <si>
+    <t>This sprint is aimed at enhancing our review process, using the template to document our discussions thoroughly, making sure every point is addressed for a clear retrospection and future reference.</t>
+  </si>
+  <si>
+    <t>Addressing Architecture Design Comments</t>
+  </si>
+  <si>
+    <t>As a lead developer, I want to address all comments from Deliverable 2 on our architecture design, ensuring that we correct any issues and improve our design to meet the grading criteria.</t>
+  </si>
+  <si>
+    <t>The sprint goal is to refine our architecture based on feedback, with a commitment to addressing all comments and enhancing the design for compliance with grading standards.</t>
+  </si>
+  <si>
+    <t>Sam Minor</t>
+  </si>
+  <si>
+    <t>Completing SRS Requirements</t>
+  </si>
+  <si>
+    <t>As an analyst, I want to ensure that all sections of the SRS are filled out with the appropriate level of detail and that all feedback from Deliverable 2 is addressed, so we meet the minimum requirement numbers and avoid deductions.</t>
+  </si>
+  <si>
+    <t>Our sprint goal is to finalize the SRS document, ensuring it's comprehensive, addresses all feedback, and meets all the necessary requirements for quality and completeness.</t>
+  </si>
+  <si>
+    <t>Samson Cournane</t>
+  </si>
+  <si>
+    <t>Enhancing Use Case Artifacts</t>
+  </si>
+  <si>
+    <t>As a designer, I want to update our Use Case Models and Descriptions based on feedback and ensure that all our diagrams and descriptions match and follow the correct template, to achieve a high level of quality and avoid point losses.</t>
+  </si>
+  <si>
+    <t>The sprint goal is to polish our Use Case artifacts to a high standard, ensuring consistency and alignment with provided feedback for optimal quality and format compliance.</t>
+  </si>
+  <si>
+    <t>Emily Brule</t>
+  </si>
+  <si>
+    <t>Creating Sequence Diagrams</t>
+  </si>
+  <si>
+    <t>As a developer, I want to create comprehensive sequence diagrams for our application's main features and provide detailed descriptions for each step, ensuring accuracy and avoiding deductions for incomplete information.</t>
+  </si>
+  <si>
+    <t>This sprint will focus on developing detailed sequence diagrams that accurately describe our main features, committing to clarity and precision to enhance our technical documentation.</t>
+  </si>
+  <si>
+    <t>Progressing the Application Version</t>
+  </si>
+  <si>
+    <t>As a developer team, we want to show clear progress from Deliverable 2 by starting the implementation of at least one core feature and writing automated tests, ensuring we use test-driven development practices to gain additional points.</t>
+  </si>
+  <si>
+    <t>The sprint goal is to demonstrate tangible progress by implementing key features and establishing a robust automated testing framework, adhering to test-driven development methods.</t>
+  </si>
+  <si>
+    <t>Kevin Menello</t>
+  </si>
+  <si>
+    <t>Video Evidence of Functionality</t>
+  </si>
+  <si>
+    <t>As a team member, I want to participate in a recorded team meeting where we each demonstrate the application working on our machines, ensuring that we meet the requirements of the rubric and avoiding point deductions for non-compliance.</t>
+  </si>
+  <si>
+    <t>The goal this sprint is to collaboratively produce a video that showcases the application’s functionality, ensuring all team members are engaged and the product meets defined criteria.</t>
   </si>
 </sst>
 </file>
@@ -687,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -780,6 +928,24 @@
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -793,6 +959,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2991,4 +3161,1244 @@
   <drawing r:id="rId9"/>
   <legacyDrawing r:id="rId10"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="9.63"/>
+    <col customWidth="1" min="2" max="2" width="48.13"/>
+    <col customWidth="1" min="3" max="3" width="35.75"/>
+    <col customWidth="1" min="4" max="4" width="20.75"/>
+    <col customWidth="1" min="5" max="5" width="18.38"/>
+    <col customWidth="1" min="6" max="6" width="35.88"/>
+    <col customWidth="1" min="7" max="7" width="29.25"/>
+    <col customWidth="1" min="8" max="8" width="15.5"/>
+    <col customWidth="1" min="9" max="10" width="14.5"/>
+    <col customWidth="1" min="11" max="11" width="25.5"/>
+    <col customWidth="1" min="12" max="13" width="38.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="48.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" ht="21.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="12">
+        <v>9.0</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="M28" s="30"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8"/>
+      <c r="B29" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J29" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="K29" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="L29" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="M29" s="37">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8"/>
+      <c r="B30" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J30" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="K30" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="M30" s="37">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8"/>
+      <c r="B31" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="K31" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="L31" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="M31" s="37">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8"/>
+      <c r="B32" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J32" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="K32" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="M32" s="37">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8"/>
+      <c r="B33" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J33" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="K33" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="L33" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="M33" s="37">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8"/>
+      <c r="B34" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J34" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="K34" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="M34" s="37">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J35" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="K35" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="L35" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="M35" s="37">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8"/>
+      <c r="B36" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J36" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="K36" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="L36" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="M36" s="37">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8"/>
+      <c r="B37" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J37" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="K37" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="L37" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="M37" s="37">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8"/>
+      <c r="B38" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J38" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="K38" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="L38" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="M38" s="37">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8"/>
+      <c r="B39" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J39" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="K39" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="L39" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="M39" s="37">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8"/>
+      <c r="B40" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="26"/>
+      <c r="E40" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J40" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="K40" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="L40" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="M40" s="37">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A28:L28"/>
+  </mergeCells>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G13 G16:G18 G21:G22 G25:G27 G29:G40">
+      <formula1>"Unassigned,Functional (Bug),Functional (Technical),Functional (Knowledge),Non-Functional (Bug),Non-Functional (Technical),Non-Functional (Knowledge)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I4:I13 I16:I18 I21:I22 I25:I27 I29:I40">
+      <formula1>"Unassigned,Waiting,In-progress,Testing,Done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L29:L40">
+      <formula1>"Kevin Menello,Samson Cournane,Sam Minor,Andrew Bement,Emily Brule,Tereza Holubcova,Entire Team"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H13 H16:H18 H21:H22 H25:H27 H29:H40">
+      <formula1>"Unassigned,Low,Medium,High"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J4:J13 J16:J18 J21:J22 J25:J27 J29:J40">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:K13 K16:K18 K21:K22 K25:K27 K29:K40">
+      <formula1>"0,1,2,3,4,5,6,7,8,9,10"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M29:M40">
+      <formula1>"10%,20%,30%,40%,50%,60%,70%,80%,90%,100%"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId2" ref="J2"/>
+    <hyperlink r:id="rId3" ref="D4"/>
+    <hyperlink r:id="rId4" ref="D5"/>
+    <hyperlink r:id="rId5" ref="D6"/>
+    <hyperlink r:id="rId6" ref="D7"/>
+    <hyperlink r:id="rId7" ref="D8"/>
+  </hyperlinks>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId8"/>
+</worksheet>
 </file>